--- a/src/sastadev/data/methods/ASTA_Index_Current.xlsx
+++ b/src/sastadev/data/methods/ASTA_Index_Current.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a3248526/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a3248526/git/sastadev_package/src/sastadev/data/methods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AF4F8CB-6257-7342-A6E2-1A3D2985CB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6F6DE7-92E5-E443-8836-C216D62007C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19200" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>SampleGrootte</t>
-  </si>
-  <si>
     <t>Interjecties</t>
   </si>
   <si>
@@ -485,9 +482,6 @@
     <t>A046</t>
   </si>
   <si>
-    <t>lemma</t>
-  </si>
-  <si>
     <t>post</t>
   </si>
   <si>
@@ -614,13 +608,19 @@
     <t>asta_future</t>
   </si>
   <si>
-    <t>foutenanalyse</t>
-  </si>
-  <si>
     <t>DELVW</t>
   </si>
   <si>
     <t>deletie van een vraagwoord</t>
+  </si>
+  <si>
+    <t>Foutenanalyse</t>
+  </si>
+  <si>
+    <t>Samplegrootte</t>
+  </si>
+  <si>
+    <t>Lemma</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +1003,10 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q36" sqref="Q36"/>
+      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1052,28 +1052,28 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>11</v>
@@ -1086,71 +1086,71 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
       </c>
       <c r="I2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>188</v>
+      </c>
+      <c r="T2" t="s">
         <v>136</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>190</v>
-      </c>
-      <c r="T2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
       </c>
       <c r="N3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -1159,30 +1159,30 @@
         <v>12</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
       </c>
       <c r="N4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -1194,21 +1194,21 @@
         <v>15</v>
       </c>
       <c r="N5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -1220,22 +1220,22 @@
         <v>15</v>
       </c>
       <c r="N6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>192</v>
       </c>
       <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s">
         <v>105</v>
       </c>
-      <c r="F7" t="s">
-        <v>106</v>
-      </c>
       <c r="H7" t="s">
         <v>15</v>
       </c>
@@ -1243,21 +1243,21 @@
         <v>15</v>
       </c>
       <c r="N7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -1269,90 +1269,90 @@
         <v>15</v>
       </c>
       <c r="N8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L9" t="s">
         <v>15</v>
       </c>
       <c r="N9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" t="s">
         <v>118</v>
       </c>
-      <c r="F10" t="s">
-        <v>119</v>
-      </c>
       <c r="H10" t="s">
         <v>15</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L10" t="s">
         <v>15</v>
       </c>
       <c r="N10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L11" t="s">
         <v>15</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1367,18 +1367,18 @@
         <v>15</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" t="s">
         <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -1390,56 +1390,56 @@
         <v>15</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
       </c>
       <c r="I14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="P14" t="s">
+        <v>163</v>
+      </c>
+      <c r="T14" t="s">
         <v>37</v>
-      </c>
-      <c r="K14" t="s">
-        <v>138</v>
-      </c>
-      <c r="L14" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" t="s">
-        <v>131</v>
-      </c>
-      <c r="P14" t="s">
-        <v>165</v>
-      </c>
-      <c r="T14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -1448,21 +1448,21 @@
         <v>15</v>
       </c>
       <c r="N15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>192</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -1471,21 +1471,21 @@
         <v>15</v>
       </c>
       <c r="N16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>192</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -1494,22 +1494,22 @@
         <v>15</v>
       </c>
       <c r="N17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
         <v>192</v>
       </c>
       <c r="E18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" t="s">
         <v>107</v>
       </c>
-      <c r="F18" t="s">
-        <v>108</v>
-      </c>
       <c r="H18" t="s">
         <v>15</v>
       </c>
@@ -1517,21 +1517,21 @@
         <v>15</v>
       </c>
       <c r="N18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -1540,60 +1540,60 @@
         <v>9</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
       </c>
       <c r="K20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L20" t="s">
         <v>15</v>
       </c>
       <c r="N20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
         <v>18</v>
-      </c>
-      <c r="E21" t="s">
-        <v>19</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -1602,33 +1602,33 @@
         <v>8</v>
       </c>
       <c r="K21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L21" t="s">
         <v>15</v>
       </c>
       <c r="N21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
@@ -1637,27 +1637,27 @@
         <v>10</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L22" t="s">
         <v>15</v>
       </c>
       <c r="N22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
@@ -1666,93 +1666,93 @@
         <v>12</v>
       </c>
       <c r="K23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L23" t="s">
         <v>15</v>
       </c>
       <c r="N23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
         <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
       </c>
       <c r="K25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L25" t="s">
         <v>15</v>
       </c>
       <c r="N25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
         <v>36</v>
       </c>
-      <c r="H26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" t="s">
-        <v>37</v>
-      </c>
       <c r="L26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -1767,41 +1767,41 @@
         <v>15</v>
       </c>
       <c r="N27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
         <v>27</v>
       </c>
-      <c r="E28" t="s">
-        <v>28</v>
-      </c>
       <c r="H28" t="s">
         <v>15</v>
       </c>
       <c r="K28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L28" t="s">
         <v>15</v>
       </c>
       <c r="N28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
@@ -1810,21 +1810,21 @@
         <v>15</v>
       </c>
       <c r="N29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
         <v>192</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
@@ -1833,21 +1833,21 @@
         <v>15</v>
       </c>
       <c r="N30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
         <v>192</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
@@ -1856,21 +1856,21 @@
         <v>15</v>
       </c>
       <c r="N31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
         <v>192</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
@@ -1879,24 +1879,24 @@
         <v>15</v>
       </c>
       <c r="N32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T32" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F33" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
@@ -1905,24 +1905,24 @@
         <v>15</v>
       </c>
       <c r="N33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
         <v>192</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
@@ -1931,24 +1931,24 @@
         <v>15</v>
       </c>
       <c r="N34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F35" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -1957,21 +1957,21 @@
         <v>15</v>
       </c>
       <c r="N35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
         <v>192</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H36" t="s">
         <v>15</v>
@@ -1980,21 +1980,21 @@
         <v>15</v>
       </c>
       <c r="N36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
         <v>192</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H37" t="s">
         <v>15</v>
@@ -2003,21 +2003,21 @@
         <v>15</v>
       </c>
       <c r="N37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
         <v>192</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H38" t="s">
         <v>15</v>
@@ -2026,284 +2026,284 @@
         <v>15</v>
       </c>
       <c r="N38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
         <v>192</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" t="s">
+        <v>166</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="L39" t="s">
+        <v>15</v>
+      </c>
+      <c r="N39" t="s">
+        <v>130</v>
+      </c>
+      <c r="T39" t="s">
         <v>99</v>
-      </c>
-      <c r="F39" t="s">
-        <v>168</v>
-      </c>
-      <c r="H39" t="s">
-        <v>15</v>
-      </c>
-      <c r="L39" t="s">
-        <v>15</v>
-      </c>
-      <c r="N39" t="s">
-        <v>131</v>
-      </c>
-      <c r="T39" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" t="s">
+        <v>143</v>
+      </c>
+      <c r="H40" t="s">
         <v>120</v>
       </c>
-      <c r="F40" t="s">
-        <v>144</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="L40" t="s">
+        <v>15</v>
+      </c>
+      <c r="N40" t="s">
+        <v>130</v>
+      </c>
+      <c r="T40" t="s">
         <v>121</v>
-      </c>
-      <c r="L40" t="s">
-        <v>15</v>
-      </c>
-      <c r="N40" t="s">
-        <v>131</v>
-      </c>
-      <c r="T40" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
         <v>192</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L41" t="s">
         <v>15</v>
       </c>
       <c r="N41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="4" t="s">
+      <c r="H42" t="s">
+        <v>120</v>
+      </c>
+      <c r="L42" t="s">
+        <v>15</v>
+      </c>
+      <c r="N42" t="s">
+        <v>130</v>
+      </c>
+      <c r="T42" t="s">
         <v>126</v>
-      </c>
-      <c r="H42" t="s">
-        <v>121</v>
-      </c>
-      <c r="L42" t="s">
-        <v>15</v>
-      </c>
-      <c r="N42" t="s">
-        <v>131</v>
-      </c>
-      <c r="T42" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" t="s">
         <v>192</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L43" t="s">
         <v>15</v>
       </c>
       <c r="N43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H44" t="s">
         <v>15</v>
       </c>
       <c r="K44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L44" t="s">
         <v>15</v>
       </c>
       <c r="N44" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" t="s">
+        <v>169</v>
+      </c>
+      <c r="L45" t="s">
+        <v>15</v>
+      </c>
+      <c r="N45" t="s">
         <v>148</v>
       </c>
-      <c r="D45" t="s">
-        <v>149</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H45" t="s">
-        <v>15</v>
-      </c>
-      <c r="K45" t="s">
-        <v>171</v>
-      </c>
-      <c r="L45" t="s">
-        <v>15</v>
-      </c>
-      <c r="N45" t="s">
-        <v>150</v>
-      </c>
       <c r="T45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" t="s">
+        <v>150</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" t="s">
         <v>151</v>
       </c>
-      <c r="D46" t="s">
+      <c r="L46" t="s">
+        <v>15</v>
+      </c>
+      <c r="N46" t="s">
+        <v>154</v>
+      </c>
+      <c r="T46" t="s">
         <v>152</v>
-      </c>
-      <c r="H46" t="s">
-        <v>15</v>
-      </c>
-      <c r="K46" t="s">
-        <v>153</v>
-      </c>
-      <c r="L46" t="s">
-        <v>15</v>
-      </c>
-      <c r="N46" t="s">
-        <v>156</v>
-      </c>
-      <c r="T46" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H47" t="s">
+        <v>120</v>
+      </c>
+      <c r="L47" t="s">
+        <v>120</v>
+      </c>
+      <c r="N47" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>189</v>
+      </c>
+      <c r="T47" t="s">
         <v>157</v>
-      </c>
-      <c r="D47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H47" t="s">
-        <v>121</v>
-      </c>
-      <c r="L47" t="s">
-        <v>121</v>
-      </c>
-      <c r="N47" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>191</v>
-      </c>
-      <c r="T47" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" t="s">
+        <v>194</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" t="s">
+        <v>173</v>
+      </c>
+      <c r="L48" t="s">
+        <v>15</v>
+      </c>
+      <c r="N48" t="s">
+        <v>148</v>
+      </c>
+      <c r="T48" t="s">
         <v>170</v>
-      </c>
-      <c r="D48" t="s">
-        <v>149</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H48" t="s">
-        <v>15</v>
-      </c>
-      <c r="K48" t="s">
-        <v>175</v>
-      </c>
-      <c r="L48" t="s">
-        <v>15</v>
-      </c>
-      <c r="N48" t="s">
-        <v>150</v>
-      </c>
-      <c r="T48" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F49" t="s">
         <v>177</v>
       </c>
-      <c r="D49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F49" t="s">
-        <v>179</v>
-      </c>
       <c r="H49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L49" t="s">
         <v>15</v>
       </c>
       <c r="N49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/src/sastadev/data/methods/ASTA_Index_Current.xlsx
+++ b/src/sastadev/data/methods/ASTA_Index_Current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1C8F41-9D63-4B22-BAD9-46C68C037D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A1AA0F-057A-4F74-9225-A2AFF8E7EDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -602,9 +602,6 @@
     <t>unused2</t>
   </si>
   <si>
-    <t>asta_2019</t>
-  </si>
-  <si>
     <t>asta_future</t>
   </si>
   <si>
@@ -633,6 +630,9 @@
   </si>
   <si>
     <t>noun en verb lemmas split up; deze moet verdwijnen</t>
+  </si>
+  <si>
+    <t>astae</t>
   </si>
 </sst>
 </file>
@@ -1015,10 +1015,10 @@
   <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1073,7 +1073,7 @@
         <v>129</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>183</v>
@@ -1125,7 +1125,7 @@
         <v>130</v>
       </c>
       <c r="R2" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="U2" t="s">
         <v>136</v>
@@ -1243,7 +1243,7 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E7" t="s">
         <v>104</v>
@@ -1339,7 +1339,7 @@
         <v>130</v>
       </c>
       <c r="U10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1474,7 +1474,7 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E16" t="s">
         <v>110</v>
@@ -1497,7 +1497,7 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E17" t="s">
         <v>108</v>
@@ -1520,7 +1520,7 @@
         <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E18" t="s">
         <v>106</v>
@@ -1839,7 +1839,7 @@
         <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>89</v>
@@ -1911,7 +1911,7 @@
         <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>92</v>
@@ -1937,7 +1937,7 @@
         <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>93</v>
@@ -1963,7 +1963,7 @@
         <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>94</v>
@@ -1986,7 +1986,7 @@
         <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>95</v>
@@ -2009,7 +2009,7 @@
         <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>96</v>
@@ -2032,7 +2032,7 @@
         <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>98</v>
@@ -2084,7 +2084,7 @@
         <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>123</v>
@@ -2130,7 +2130,7 @@
         <v>128</v>
       </c>
       <c r="D42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>127</v>
@@ -2197,7 +2197,7 @@
         <v>149</v>
       </c>
       <c r="U44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
@@ -2243,7 +2243,7 @@
         <v>130</v>
       </c>
       <c r="R46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U46" t="s">
         <v>158</v>
@@ -2272,7 +2272,7 @@
         <v>149</v>
       </c>
       <c r="U47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
@@ -2303,7 +2303,7 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D49" t="s">
         <v>148</v>
@@ -2315,7 +2315,7 @@
         <v>15</v>
       </c>
       <c r="K49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L49" t="s">
         <v>15</v>
@@ -2324,13 +2324,13 @@
         <v>130</v>
       </c>
       <c r="O49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/src/sastadev/data/methods/ASTA_Index_Current.xlsx
+++ b/src/sastadev/data/methods/ASTA_Index_Current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A1AA0F-057A-4F74-9225-A2AFF8E7EDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31618B29-DAA8-4A9A-A13C-3315898B058B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="201">
   <si>
     <t>ID</t>
   </si>
@@ -633,6 +633,12 @@
   </si>
   <si>
     <t>astae</t>
+  </si>
+  <si>
+    <t>MLUX</t>
+  </si>
+  <si>
+    <t>SSZX</t>
   </si>
 </sst>
 </file>
@@ -716,9 +722,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -756,7 +762,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -862,7 +868,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1004,7 +1010,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1015,10 +1021,10 @@
   <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1796,6 +1802,9 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28" t="s">
         <v>28</v>
       </c>
       <c r="H28" t="s">
@@ -2159,6 +2168,9 @@
         <v>16</v>
       </c>
       <c r="E43" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F43" t="s">
         <v>28</v>
       </c>
       <c r="H43" t="s">

--- a/src/sastadev/data/methods/ASTA_Index_Current.xlsx
+++ b/src/sastadev/data/methods/ASTA_Index_Current.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\src\sastadev\data\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31618B29-DAA8-4A9A-A13C-3315898B058B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACDC261-39AA-43BF-A77B-999A06D62FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,9 +452,6 @@
     <t>//node[%ASTA_kopww%]</t>
   </si>
   <si>
-    <t>//node[@pt="ww" and %ASTA_modalww%]</t>
-  </si>
-  <si>
     <t>SEM PAR, sp</t>
   </si>
   <si>
@@ -639,6 +636,9 @@
   </si>
   <si>
     <t>SSZX</t>
+  </si>
+  <si>
+    <t>//node[@pt="ww" and %ASTA_modalww% and not(%ASTA_XXX%)]</t>
   </si>
 </sst>
 </file>
@@ -1018,13 +1018,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomRight" activeCell="A50" sqref="A50:V50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1079,22 +1079,22 @@
         <v>129</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>11</v>
@@ -1122,7 +1122,7 @@
         <v>135</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -1131,7 +1131,7 @@
         <v>130</v>
       </c>
       <c r="R2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U2" t="s">
         <v>136</v>
@@ -1180,7 +1180,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
@@ -1200,7 +1200,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F5" t="s">
         <v>100</v>
@@ -1226,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F6" t="s">
         <v>101</v>
@@ -1249,7 +1249,7 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E7" t="s">
         <v>104</v>
@@ -1304,13 +1304,13 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L9" t="s">
         <v>15</v>
@@ -1336,7 +1336,7 @@
         <v>15</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L10" t="s">
         <v>15</v>
@@ -1345,7 +1345,7 @@
         <v>130</v>
       </c>
       <c r="U10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
@@ -1428,7 +1428,7 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -1446,7 +1446,7 @@
         <v>130</v>
       </c>
       <c r="Q14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U14" t="s">
         <v>38</v>
@@ -1480,13 +1480,13 @@
         <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
         <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -1503,13 +1503,13 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E17" t="s">
         <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -1526,7 +1526,7 @@
         <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E18" t="s">
         <v>106</v>
@@ -1564,7 +1564,7 @@
         <v>9</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>15</v>
@@ -1574,7 +1574,7 @@
         <v>130</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -1597,7 +1597,7 @@
         <v>15</v>
       </c>
       <c r="K20" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s">
         <v>15</v>
@@ -1606,7 +1606,7 @@
         <v>130</v>
       </c>
       <c r="Q20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -1626,7 +1626,7 @@
         <v>8</v>
       </c>
       <c r="K21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L21" t="s">
         <v>15</v>
@@ -1635,7 +1635,7 @@
         <v>130</v>
       </c>
       <c r="Q21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U21" t="s">
         <v>132</v>
@@ -1661,7 +1661,7 @@
         <v>10</v>
       </c>
       <c r="K22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s">
         <v>15</v>
@@ -1670,7 +1670,7 @@
         <v>130</v>
       </c>
       <c r="Q22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -1713,13 +1713,13 @@
         <v>37</v>
       </c>
       <c r="L24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N24" t="s">
         <v>130</v>
       </c>
       <c r="U24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -1733,13 +1733,13 @@
         <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
       </c>
       <c r="K25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L25" t="s">
         <v>15</v>
@@ -1762,13 +1762,13 @@
         <v>37</v>
       </c>
       <c r="L26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N26" t="s">
         <v>130</v>
       </c>
       <c r="U26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
@@ -1802,7 +1802,7 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
@@ -1817,7 +1817,7 @@
         <v>15</v>
       </c>
       <c r="N28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
@@ -1848,7 +1848,7 @@
         <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>89</v>
@@ -1900,7 +1900,7 @@
         <v>91</v>
       </c>
       <c r="F32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
@@ -1920,13 +1920,13 @@
         <v>83</v>
       </c>
       <c r="D33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
@@ -1946,13 +1946,13 @@
         <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>93</v>
       </c>
       <c r="F34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
@@ -1972,7 +1972,7 @@
         <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>94</v>
@@ -1995,7 +1995,7 @@
         <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>95</v>
@@ -2018,7 +2018,7 @@
         <v>87</v>
       </c>
       <c r="D37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>96</v>
@@ -2041,13 +2041,13 @@
         <v>97</v>
       </c>
       <c r="D38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>98</v>
       </c>
       <c r="F38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H38" t="s">
         <v>15</v>
@@ -2073,7 +2073,7 @@
         <v>119</v>
       </c>
       <c r="F39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H39" t="s">
         <v>120</v>
@@ -2093,7 +2093,7 @@
         <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>123</v>
@@ -2139,13 +2139,13 @@
         <v>128</v>
       </c>
       <c r="D42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>127</v>
       </c>
       <c r="F42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H42" t="s">
         <v>120</v>
@@ -2168,7 +2168,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F43" t="s">
         <v>28</v>
@@ -2183,67 +2183,67 @@
         <v>15</v>
       </c>
       <c r="N43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" t="s">
         <v>147</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" t="s">
+        <v>169</v>
+      </c>
+      <c r="L44" t="s">
+        <v>15</v>
+      </c>
+      <c r="N44" t="s">
         <v>148</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H44" t="s">
-        <v>15</v>
-      </c>
-      <c r="K44" t="s">
-        <v>170</v>
-      </c>
-      <c r="L44" t="s">
-        <v>15</v>
-      </c>
-      <c r="N44" t="s">
-        <v>149</v>
-      </c>
       <c r="U44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" t="s">
         <v>150</v>
       </c>
-      <c r="D45" t="s">
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" t="s">
         <v>151</v>
-      </c>
-      <c r="H45" t="s">
-        <v>15</v>
-      </c>
-      <c r="K45" t="s">
-        <v>152</v>
       </c>
       <c r="L45" t="s">
         <v>120</v>
       </c>
       <c r="N45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H46" t="s">
         <v>120</v>
@@ -2255,50 +2255,50 @@
         <v>130</v>
       </c>
       <c r="R46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E47" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" t="s">
         <v>172</v>
-      </c>
-      <c r="H47" t="s">
-        <v>15</v>
-      </c>
-      <c r="K47" t="s">
-        <v>173</v>
       </c>
       <c r="L47" t="s">
         <v>120</v>
       </c>
       <c r="N47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
       </c>
       <c r="E48" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" t="s">
         <v>176</v>
-      </c>
-      <c r="F48" t="s">
-        <v>177</v>
       </c>
       <c r="H48" t="s">
         <v>120</v>
@@ -2310,40 +2310,43 @@
         <v>130</v>
       </c>
       <c r="U48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>188</v>
+      </c>
+      <c r="D49" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" t="s">
+        <v>191</v>
+      </c>
+      <c r="L49" t="s">
+        <v>15</v>
+      </c>
+      <c r="N49" t="s">
+        <v>130</v>
+      </c>
+      <c r="O49" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>190</v>
+      </c>
+      <c r="U49" t="s">
         <v>189</v>
       </c>
-      <c r="D49" t="s">
-        <v>148</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H49" t="s">
-        <v>15</v>
-      </c>
-      <c r="K49" t="s">
-        <v>192</v>
-      </c>
-      <c r="L49" t="s">
-        <v>15</v>
-      </c>
-      <c r="N49" t="s">
-        <v>130</v>
-      </c>
-      <c r="O49" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>191</v>
-      </c>
-      <c r="U49" t="s">
-        <v>190</v>
-      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E50" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:W49" xr:uid="{356449EB-3FBE-4443-8528-03CDC854A576}"/>
